--- a/pred_ohlcv/54_21/2020-01-25 AMO ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 AMO ohlcv.xlsx
@@ -1094,7 +1094,7 @@
         <v>-4828021.261700001</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-4639226.404200001</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-4375077.095700001</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-5192804.264700001</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-5275575.729500001</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-5273583.891000002</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-6786323.575000001</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-3604138.624000001</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-1398743.082800001</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-2392269.992600001</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-2568241.992600001</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-3978681.270600001</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-7135186.925600002</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-15632272.7205</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-35403125.28260002</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-34551495.06460001</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-38391816.68280001</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-27752102.74180001</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-28518975.33680001</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-22266813.24840002</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-23354725.32840002</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-16409100.05380004</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-25 AMO ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 AMO ohlcv.xlsx
@@ -1016,7 +1016,7 @@
         <v>-3459369.5377</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-3366136.1517</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-3584177.889200001</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-5957023.553200001</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-4375077.095700001</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-5192804.264700001</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-5273583.891000002</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-6786323.575000001</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-3604138.624000001</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-2392269.992600001</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-2568241.992600001</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-3978681.270600001</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-5802660.251600001</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-7135186.925600002</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-15632272.7205</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-35403125.28260002</v>
       </c>
       <c r="H358">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-34551495.06460001</v>
       </c>
       <c r="H359">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-34322649.48060001</v>
       </c>
       <c r="H362">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-33992094.74760001</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-38391816.68280001</v>
       </c>
       <c r="H371">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-27752102.74180001</v>
       </c>
       <c r="H376">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-28518975.33680001</v>
       </c>
       <c r="H377">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-22266813.24840002</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-23354725.32840002</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-16409100.05380004</v>
       </c>
       <c r="H530">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-6407605.125900045</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-6199553.805800045</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-7542778.241800045</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-8953808.777800046</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-9813914.758800047</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615" spans="1:8">
